--- a/parabolic/2025/08/07/parabolic.xlsx
+++ b/parabolic/2025/08/07/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D2" t="n">
-        <v>173900</v>
+        <v>289100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>153</v>
+        <v>333</v>
       </c>
       <c r="D3" t="n">
-        <v>1865600</v>
+        <v>152900</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>618</v>
+        <v>152</v>
       </c>
       <c r="D4" t="n">
-        <v>144500</v>
+        <v>4363000</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>787.5999755859375</v>
+        <v>615</v>
       </c>
       <c r="D5" t="n">
-        <v>4596200</v>
+        <v>254700</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>852.7999877929688</v>
+        <v>792</v>
       </c>
       <c r="D6" t="n">
-        <v>1216800</v>
+        <v>8996300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>805.2999877929688</v>
+        <v>503</v>
       </c>
       <c r="D7" t="n">
-        <v>394100</v>
+        <v>406000</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8338</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>267</v>
+        <v>402</v>
       </c>
       <c r="D8" t="n">
-        <v>301500</v>
+        <v>180900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8368</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>803</v>
+        <v>848.7999877929688</v>
       </c>
       <c r="D9" t="n">
-        <v>342400</v>
+        <v>1811800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,200 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>805.7999877929688</v>
       </c>
       <c r="D10" t="n">
-        <v>407100</v>
+        <v>622000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>7359</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>513</v>
+      </c>
+      <c r="D11" t="n">
+        <v>136700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>7795</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>185</v>
+      </c>
+      <c r="D12" t="n">
+        <v>113900</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>7836</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D13" t="n">
+        <v>151800</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>931.4000244140625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>248100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>8338</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>269</v>
+      </c>
+      <c r="D15" t="n">
+        <v>468700</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>8368</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>797</v>
+      </c>
+      <c r="D16" t="n">
+        <v>457700</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>448</v>
+      </c>
+      <c r="D17" t="n">
+        <v>479900</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>847.7999877929688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1055300</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/07/parabolic.xlsx
+++ b/parabolic/2025/08/07/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D2" t="n">
-        <v>289100</v>
+        <v>376500</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D3" t="n">
-        <v>152900</v>
+        <v>222000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>152</v>
+        <v>928</v>
       </c>
       <c r="D4" t="n">
-        <v>4363000</v>
+        <v>164300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>615</v>
+        <v>149</v>
       </c>
       <c r="D5" t="n">
-        <v>254700</v>
+        <v>4858200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>792</v>
+        <v>611</v>
       </c>
       <c r="D6" t="n">
-        <v>8996300</v>
+        <v>341300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>503</v>
+        <v>793.4000244140625</v>
       </c>
       <c r="D7" t="n">
-        <v>406000</v>
+        <v>12021100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>402</v>
+        <v>759</v>
       </c>
       <c r="D8" t="n">
-        <v>180900</v>
+        <v>273900</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>848.7999877929688</v>
+        <v>511</v>
       </c>
       <c r="D9" t="n">
-        <v>1811800</v>
+        <v>696000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>805.7999877929688</v>
+        <v>407</v>
       </c>
       <c r="D10" t="n">
-        <v>622000</v>
+        <v>188700</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>513</v>
+        <v>860.5999755859375</v>
       </c>
       <c r="D11" t="n">
-        <v>136700</v>
+        <v>2471300</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7795</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>185</v>
+        <v>847.7000122070312</v>
       </c>
       <c r="D12" t="n">
-        <v>113900</v>
+        <v>2326000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="D13" t="n">
-        <v>151800</v>
+        <v>291400</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>7795</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>931.4000244140625</v>
+        <v>185</v>
       </c>
       <c r="D14" t="n">
-        <v>248100</v>
+        <v>133500</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>8338</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>269</v>
+        <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>468700</v>
+        <v>204200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>8368</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>797</v>
+        <v>925.5999755859375</v>
       </c>
       <c r="D16" t="n">
-        <v>457700</v>
+        <v>459800</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>8338</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>448</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>479900</v>
+        <v>681700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>8368</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,16 +850,62 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>847.7999877929688</v>
+        <v>795</v>
       </c>
       <c r="D18" t="n">
-        <v>1055300</v>
+        <v>620900</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>447</v>
+      </c>
+      <c r="D19" t="n">
+        <v>568900</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>854.7000122070312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1803900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/07/parabolic.xlsx
+++ b/parabolic/2025/08/07/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2193</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="D2" t="n">
-        <v>376500</v>
+        <v>133300</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>332</v>
+        <v>215</v>
       </c>
       <c r="D3" t="n">
-        <v>222000</v>
+        <v>532700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2471</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>928</v>
+        <v>333</v>
       </c>
       <c r="D4" t="n">
-        <v>164300</v>
+        <v>307300</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3185</t>
+          <t>2884</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>149</v>
+        <v>926</v>
       </c>
       <c r="D5" t="n">
-        <v>4858200</v>
+        <v>239400</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>3070</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>611</v>
+        <v>278</v>
       </c>
       <c r="D6" t="n">
-        <v>341300</v>
+        <v>820900</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>793.4000244140625</v>
+        <v>158</v>
       </c>
       <c r="D7" t="n">
-        <v>12021100</v>
+        <v>5377200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>759</v>
+        <v>611</v>
       </c>
       <c r="D8" t="n">
-        <v>273900</v>
+        <v>413800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6768</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="D9" t="n">
-        <v>696000</v>
+        <v>226900</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>4755</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>407</v>
+        <v>793.5</v>
       </c>
       <c r="D10" t="n">
-        <v>188700</v>
+        <v>16935500</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>7167</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>860.5999755859375</v>
+        <v>763</v>
       </c>
       <c r="D11" t="n">
-        <v>2471300</v>
+        <v>316400</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>7180</t>
+          <t>6768</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>847.7000122070312</v>
+        <v>509</v>
       </c>
       <c r="D12" t="n">
-        <v>2326000</v>
+        <v>962000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>7359</t>
+          <t>6837</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>523</v>
+        <v>407</v>
       </c>
       <c r="D13" t="n">
-        <v>291400</v>
+        <v>196200</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>7795</t>
+          <t>7167</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>185</v>
+        <v>864</v>
       </c>
       <c r="D14" t="n">
-        <v>133500</v>
+        <v>3774300</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>7836</t>
+          <t>7180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>835.7000122070312</v>
       </c>
       <c r="D15" t="n">
-        <v>204200</v>
+        <v>3486600</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>7359</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>925.5999755859375</v>
+        <v>525</v>
       </c>
       <c r="D16" t="n">
-        <v>459800</v>
+        <v>360300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8338</t>
+          <t>7795</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>269</v>
+        <v>185</v>
       </c>
       <c r="D17" t="n">
-        <v>681700</v>
+        <v>146700</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8368</t>
+          <t>7836</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>795</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>620900</v>
+        <v>235000</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>447</v>
+        <v>930.5999755859375</v>
       </c>
       <c r="D19" t="n">
-        <v>568900</v>
+        <v>870500</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>8338</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,16 +896,85 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>854.7000122070312</v>
+        <v>270</v>
       </c>
       <c r="D20" t="n">
-        <v>1803900</v>
+        <v>894400</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8368</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>795</v>
+      </c>
+      <c r="D21" t="n">
+        <v>796400</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8550</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>447</v>
+      </c>
+      <c r="D22" t="n">
+        <v>689500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>9504</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>854.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2704100</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
